--- a/INTLINE/data/142/STANOR/old/09672 Current and capital account (Balance From abroad).xlsx
+++ b/INTLINE/data/142/STANOR/old/09672 Current and capital account (Balance From abroad).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="202">
   <x:si>
     <x:t>09672: Current and capital account. Current prices (NOK million), by contents, item and quarter</x:t>
   </x:si>
@@ -508,6 +508,9 @@
     <x:t>2021K3</x:t>
   </x:si>
   <x:si>
+    <x:t>2021K4</x:t>
+  </x:si>
+  <x:si>
     <x:t>Current and capital account</x:t>
   </x:si>
   <x:si>
@@ -556,13 +559,13 @@
     <x:t>.. = Data not available. Figures have not been entered into our databases or are too unreliable to be published.</x:t>
   </x:si>
   <x:si>
-    <x:t>Latest update:</x:t>
+    <x:t>Updated:</x:t>
   </x:si>
   <x:si>
     <x:t>Current and capital account:</x:t>
   </x:si>
   <x:si>
-    <x:t>20211201 08:00</x:t>
+    <x:t>20220302 08:00</x:t>
   </x:si>
   <x:si>
     <x:t>Source:</x:t>
@@ -1013,22 +1016,21 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:FI59"/>
+  <x:dimension ref="A1:FJ59"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="2" width="40.710625" style="0" customWidth="1"/>
-    <x:col min="3" max="165" width="8.300625" style="0" customWidth="1"/>
+    <x:col min="1" max="166" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:165">
+    <x:row r="1" spans="1:166">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:165">
+    <x:row r="3" spans="1:166">
       <x:c r="C3" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -1518,13 +1520,16 @@
       <x:c r="FI3" s="2" t="s">
         <x:v>163</x:v>
       </x:c>
+      <x:c r="FJ3" s="2" t="s">
+        <x:v>164</x:v>
+      </x:c>
     </x:row>
-    <x:row r="4" spans="1:165">
+    <x:row r="4" spans="1:166">
       <x:c r="A4" s="2" t="s">
-        <x:v>164</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="C4" s="3" t="n">
         <x:v>5826</x:v>
@@ -2007,18 +2012,21 @@
         <x:v>6497</x:v>
       </x:c>
       <x:c r="FG4" s="3" t="n">
-        <x:v>62269</x:v>
+        <x:v>63570</x:v>
       </x:c>
       <x:c r="FH4" s="3" t="n">
-        <x:v>61545</x:v>
+        <x:v>63574</x:v>
       </x:c>
       <x:c r="FI4" s="3" t="n">
-        <x:v>129730</x:v>
+        <x:v>131596</x:v>
+      </x:c>
+      <x:c r="FJ4" s="3" t="n">
+        <x:v>257468</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:165">
+    <x:row r="5" spans="1:166">
       <x:c r="B5" s="2" t="s">
-        <x:v>166</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="C5" s="3" t="n">
         <x:v>1554</x:v>
@@ -2501,18 +2509,21 @@
         <x:v>4202</x:v>
       </x:c>
       <x:c r="FG5" s="3" t="n">
-        <x:v>53184</x:v>
+        <x:v>53649</x:v>
       </x:c>
       <x:c r="FH5" s="3" t="n">
-        <x:v>51152</x:v>
+        <x:v>51749</x:v>
       </x:c>
       <x:c r="FI5" s="3" t="n">
-        <x:v>121964</x:v>
+        <x:v>123192</x:v>
+      </x:c>
+      <x:c r="FJ5" s="3" t="n">
+        <x:v>256627</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:165">
+    <x:row r="6" spans="1:166">
       <x:c r="B6" s="2" t="s">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="C6" s="3" t="n">
         <x:v>4272</x:v>
@@ -2995,18 +3006,21 @@
         <x:v>2295</x:v>
       </x:c>
       <x:c r="FG6" s="3" t="n">
-        <x:v>9085</x:v>
+        <x:v>9921</x:v>
       </x:c>
       <x:c r="FH6" s="3" t="n">
-        <x:v>10394</x:v>
+        <x:v>11825</x:v>
       </x:c>
       <x:c r="FI6" s="3" t="n">
-        <x:v>7766</x:v>
+        <x:v>8404</x:v>
+      </x:c>
+      <x:c r="FJ6" s="3" t="n">
+        <x:v>841</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:165">
+    <x:row r="7" spans="1:166">
       <x:c r="B7" s="2" t="s">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="C7" s="3" t="n">
         <x:v>1990</x:v>
@@ -3477,30 +3491,33 @@
         <x:v>95267</x:v>
       </x:c>
       <x:c r="FC7" s="3" t="n">
-        <x:v>106306</x:v>
+        <x:v>104945</x:v>
       </x:c>
       <x:c r="FD7" s="3" t="n">
-        <x:v>92435</x:v>
+        <x:v>91074</x:v>
       </x:c>
       <x:c r="FE7" s="3" t="n">
-        <x:v>81600</x:v>
+        <x:v>80239</x:v>
       </x:c>
       <x:c r="FF7" s="3" t="n">
-        <x:v>84373</x:v>
+        <x:v>83012</x:v>
       </x:c>
       <x:c r="FG7" s="3" t="n">
-        <x:v>91365</x:v>
+        <x:v>92202</x:v>
       </x:c>
       <x:c r="FH7" s="3" t="n">
-        <x:v>113049</x:v>
+        <x:v>108994</x:v>
       </x:c>
       <x:c r="FI7" s="3" t="n">
-        <x:v>93603</x:v>
+        <x:v>102320</x:v>
+      </x:c>
+      <x:c r="FJ7" s="3" t="n">
+        <x:v>84075</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:165">
+    <x:row r="8" spans="1:166">
       <x:c r="B8" s="2" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="C8" s="3" t="n">
         <x:v>149</x:v>
@@ -3983,18 +4000,21 @@
         <x:v>1394</x:v>
       </x:c>
       <x:c r="FG8" s="3" t="n">
-        <x:v>1463</x:v>
+        <x:v>1458</x:v>
       </x:c>
       <x:c r="FH8" s="3" t="n">
-        <x:v>1426</x:v>
+        <x:v>1425</x:v>
       </x:c>
       <x:c r="FI8" s="3" t="n">
         <x:v>1439</x:v>
       </x:c>
+      <x:c r="FJ8" s="3" t="n">
+        <x:v>1444</x:v>
+      </x:c>
     </x:row>
-    <x:row r="9" spans="1:165">
+    <x:row r="9" spans="1:166">
       <x:c r="B9" s="2" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="C9" s="3" t="n">
         <x:v>1562</x:v>
@@ -4477,390 +4497,393 @@
         <x:v>28891</x:v>
       </x:c>
       <x:c r="FG9" s="3" t="n">
-        <x:v>27016</x:v>
+        <x:v>26524</x:v>
       </x:c>
       <x:c r="FH9" s="3" t="n">
-        <x:v>26671</x:v>
+        <x:v>26657</x:v>
       </x:c>
       <x:c r="FI9" s="3" t="n">
-        <x:v>28134</x:v>
+        <x:v>28560</x:v>
+      </x:c>
+      <x:c r="FJ9" s="3" t="n">
+        <x:v>28133</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:165">
+    <x:row r="10" spans="1:166">
       <x:c r="B10" s="2" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="C10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="D10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="E10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="F10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="G10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="H10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="I10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="J10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="K10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="L10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="M10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="N10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="O10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="P10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="Q10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="R10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="S10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="T10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="U10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="V10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="W10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="X10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="Y10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="Z10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AA10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AB10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AC10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AD10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AE10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AF10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AG10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AH10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AI10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AJ10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AK10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AL10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AM10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AN10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AO10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AP10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AQ10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AR10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AS10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AT10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AU10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AV10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AW10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AX10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AY10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AZ10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BA10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BB10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BC10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BD10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BE10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BF10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BG10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BH10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BI10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BJ10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BK10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BL10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BM10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BN10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BO10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BP10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BQ10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BR10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BS10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BT10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BU10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BV10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BW10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BX10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BY10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BZ10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CA10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CB10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CC10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CD10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CE10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CF10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CG10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CH10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CI10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CJ10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CK10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CL10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CM10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CN10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CO10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CP10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CQ10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CR10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CS10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CT10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CU10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CV10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CW10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CX10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CY10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CZ10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="DA10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="DB10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="DC10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="DD10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="DE10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="DF10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="DG10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="DH10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="DI10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="DJ10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="DK10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="DL10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="DM10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="DN10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="DO10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="DP10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="DQ10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="DR10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="DS10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="DT10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="DU10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="DV10" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="DW10" s="3" t="n">
         <x:v>3129</x:v>
@@ -4971,390 +4994,393 @@
         <x:v>3849</x:v>
       </x:c>
       <x:c r="FG10" s="3" t="n">
-        <x:v>2946</x:v>
+        <x:v>2947</x:v>
       </x:c>
       <x:c r="FH10" s="3" t="n">
-        <x:v>3058</x:v>
+        <x:v>3054</x:v>
       </x:c>
       <x:c r="FI10" s="3" t="n">
-        <x:v>3254</x:v>
+        <x:v>3419</x:v>
+      </x:c>
+      <x:c r="FJ10" s="3" t="n">
+        <x:v>3661</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:165">
+    <x:row r="11" spans="1:166">
       <x:c r="B11" s="2" t="s">
-        <x:v>173</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="C11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="D11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="E11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="F11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="G11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="H11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="I11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="J11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="K11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="L11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="M11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="N11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="O11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="P11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="Q11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="R11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="S11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="T11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="U11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="V11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="W11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="X11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="Y11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="Z11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AA11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AB11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AC11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AD11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AE11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AF11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AG11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AH11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AI11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AJ11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AK11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AL11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AM11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AN11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AO11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AP11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AQ11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AR11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AS11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AT11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AU11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AV11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AW11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AX11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AY11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AZ11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BA11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BB11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BC11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BD11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BE11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BF11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BG11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BH11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BI11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BJ11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BK11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BL11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BM11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BN11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BO11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BP11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BQ11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BR11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BS11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BT11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BU11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BV11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BW11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BX11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BY11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BZ11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CA11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CB11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CC11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CD11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CE11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CF11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CG11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CH11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CI11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CJ11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CK11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CL11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CM11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CN11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CO11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CP11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CQ11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CR11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CS11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CT11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CU11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CV11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CW11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CX11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CY11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CZ11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="DA11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="DB11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="DC11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="DD11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="DE11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="DF11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="DG11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="DH11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="DI11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="DJ11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="DK11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="DL11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="DM11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="DN11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="DO11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="DP11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="DQ11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="DR11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="DS11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="DT11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="DU11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="DV11" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="DW11" s="3" t="n">
         <x:v>22356</x:v>
@@ -5465,18 +5491,21 @@
         <x:v>25042</x:v>
       </x:c>
       <x:c r="FG11" s="3" t="n">
-        <x:v>24070</x:v>
+        <x:v>23577</x:v>
       </x:c>
       <x:c r="FH11" s="3" t="n">
-        <x:v>23613</x:v>
+        <x:v>23603</x:v>
       </x:c>
       <x:c r="FI11" s="3" t="n">
-        <x:v>24880</x:v>
+        <x:v>25141</x:v>
+      </x:c>
+      <x:c r="FJ11" s="3" t="n">
+        <x:v>24472</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:165">
+    <x:row r="12" spans="1:166">
       <x:c r="B12" s="2" t="s">
-        <x:v>174</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="C12" s="3" t="n">
         <x:v>86</x:v>
@@ -5959,306 +5988,309 @@
         <x:v>53821</x:v>
       </x:c>
       <x:c r="FG12" s="3" t="n">
-        <x:v>57975</x:v>
+        <x:v>60684</x:v>
       </x:c>
       <x:c r="FH12" s="3" t="n">
-        <x:v>85883</x:v>
+        <x:v>83200</x:v>
       </x:c>
       <x:c r="FI12" s="3" t="n">
-        <x:v>64931</x:v>
+        <x:v>74564</x:v>
+      </x:c>
+      <x:c r="FJ12" s="3" t="n">
+        <x:v>53141</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:165">
+    <x:row r="13" spans="1:166">
       <x:c r="B13" s="2" t="s">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="C13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="D13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="E13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="F13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="G13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="H13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="I13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="J13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="K13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="L13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="M13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="N13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="O13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="P13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="Q13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="R13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="S13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="T13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="U13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="V13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="W13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="X13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="Y13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="Z13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AA13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AB13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AC13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AD13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AE13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AF13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AG13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AH13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AI13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AJ13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AK13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AL13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AM13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AN13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AO13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AP13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AQ13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AR13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AS13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AT13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AU13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AV13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AW13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AX13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AY13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AZ13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BA13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BB13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BC13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BD13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BE13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BF13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BG13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BH13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BI13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BJ13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BK13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BL13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BM13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BN13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BO13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BP13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BQ13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BR13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BS13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BT13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BU13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BV13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BW13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BX13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BY13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BZ13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CA13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CB13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CC13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CD13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CE13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CF13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CG13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CH13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CI13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CJ13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CK13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CL13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CM13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CN13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CO13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CP13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CQ13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CR13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CS13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CT13" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CU13" s="3" t="n">
         <x:v>4191</x:v>
@@ -6453,306 +6485,309 @@
         <x:v>22574</x:v>
       </x:c>
       <x:c r="FG13" s="3" t="n">
-        <x:v>11961</x:v>
+        <x:v>14673</x:v>
       </x:c>
       <x:c r="FH13" s="3" t="n">
-        <x:v>26880</x:v>
+        <x:v>24166</x:v>
       </x:c>
       <x:c r="FI13" s="3" t="n">
-        <x:v>15645</x:v>
+        <x:v>25279</x:v>
+      </x:c>
+      <x:c r="FJ13" s="3" t="n">
+        <x:v>18693</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:165">
+    <x:row r="14" spans="1:166">
       <x:c r="B14" s="2" t="s">
-        <x:v>176</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="C14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="D14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="E14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="F14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="G14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="H14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="I14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="J14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="K14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="L14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="M14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="N14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="O14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="P14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="Q14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="R14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="S14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="T14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="U14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="V14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="W14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="X14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="Y14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="Z14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AA14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AB14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AC14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AD14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AE14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AF14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AG14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AH14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AI14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AJ14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AK14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AL14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AM14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AN14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AO14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AP14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AQ14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AR14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AS14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AT14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AU14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AV14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AW14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AX14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AY14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="AZ14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BA14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BB14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BC14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BD14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BE14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BF14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BG14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BH14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BI14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BJ14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BK14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BL14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BM14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BN14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BO14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BP14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BQ14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BR14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BS14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BT14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BU14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BV14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BW14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BX14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BY14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="BZ14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CA14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CB14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CC14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CD14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CE14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CF14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CG14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CH14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CI14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CJ14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CK14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CL14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CM14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CN14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CO14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CP14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CQ14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CR14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CS14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CT14" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="CU14" s="3" t="n">
         <x:v>3078</x:v>
@@ -6947,18 +6982,21 @@
         <x:v>31247</x:v>
       </x:c>
       <x:c r="FG14" s="3" t="n">
-        <x:v>46014</x:v>
+        <x:v>46011</x:v>
       </x:c>
       <x:c r="FH14" s="3" t="n">
-        <x:v>59003</x:v>
+        <x:v>59034</x:v>
       </x:c>
       <x:c r="FI14" s="3" t="n">
-        <x:v>49286</x:v>
+        <x:v>49285</x:v>
+      </x:c>
+      <x:c r="FJ14" s="3" t="n">
+        <x:v>34448</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:165">
+    <x:row r="15" spans="1:166">
       <x:c r="B15" s="2" t="s">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="C15" s="3" t="n">
         <x:v>0</x:v>
@@ -7429,30 +7467,33 @@
         <x:v>-4318</x:v>
       </x:c>
       <x:c r="FC15" s="3" t="n">
-        <x:v>-12653</x:v>
+        <x:v>-14014</x:v>
       </x:c>
       <x:c r="FD15" s="3" t="n">
-        <x:v>-12653</x:v>
+        <x:v>-14014</x:v>
       </x:c>
       <x:c r="FE15" s="3" t="n">
-        <x:v>-12653</x:v>
+        <x:v>-14014</x:v>
       </x:c>
       <x:c r="FF15" s="3" t="n">
-        <x:v>-12653</x:v>
+        <x:v>-14014</x:v>
       </x:c>
       <x:c r="FG15" s="3" t="n">
-        <x:v>-12647</x:v>
+        <x:v>-14004</x:v>
       </x:c>
       <x:c r="FH15" s="3" t="n">
-        <x:v>-12647</x:v>
+        <x:v>-14004</x:v>
       </x:c>
       <x:c r="FI15" s="3" t="n">
-        <x:v>-12647</x:v>
+        <x:v>-14004</x:v>
+      </x:c>
+      <x:c r="FJ15" s="3" t="n">
+        <x:v>-14004</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:165">
+    <x:row r="16" spans="1:166">
       <x:c r="B16" s="2" t="s">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="C16" s="3" t="n">
         <x:v>193</x:v>
@@ -7935,151 +7976,157 @@
         <x:v>12920</x:v>
       </x:c>
       <x:c r="FG16" s="3" t="n">
-        <x:v>17558</x:v>
+        <x:v>17540</x:v>
       </x:c>
       <x:c r="FH16" s="3" t="n">
         <x:v>11716</x:v>
       </x:c>
       <x:c r="FI16" s="3" t="n">
-        <x:v>11746</x:v>
+        <x:v>11761</x:v>
+      </x:c>
+      <x:c r="FJ16" s="3" t="n">
+        <x:v>15361</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:165">
+    <x:row r="18" spans="1:166">
       <x:c r="A18" s="5" t="s">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:165">
+    <x:row r="20" spans="1:166">
       <x:c r="A20" s="0" t="s">
-        <x:v>180</x:v>
+        <x:v>181</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="1:165">
+    <x:row r="21" spans="1:166">
       <x:c r="A21" s="0" t="s">
-        <x:v>181</x:v>
+        <x:v>182</x:v>
       </x:c>
     </x:row>
-    <x:row r="22" spans="1:165">
+    <x:row r="22" spans="1:166">
       <x:c r="A22" s="0" t="s">
+        <x:v>183</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:166">
+      <x:c r="A24" s="0" t="s">
+        <x:v>184</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:166">
+      <x:c r="A25" s="0" t="s">
+        <x:v>185</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:166">
+      <x:c r="A27" s="0" t="s">
+        <x:v>186</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:166">
+      <x:c r="A28" s="0" t="s">
         <x:v>182</x:v>
       </x:c>
     </x:row>
-    <x:row r="24" spans="1:165">
-      <x:c r="A24" s="0" t="s">
-        <x:v>183</x:v>
+    <x:row r="29" spans="1:166">
+      <x:c r="A29" s="0" t="s">
+        <x:v>187</x:v>
       </x:c>
     </x:row>
-    <x:row r="25" spans="1:165">
-      <x:c r="A25" s="0" t="s">
-        <x:v>184</x:v>
+    <x:row r="30" spans="1:166">
+      <x:c r="A30" s="0" t="s">
+        <x:v>188</x:v>
       </x:c>
     </x:row>
-    <x:row r="27" spans="1:165">
-      <x:c r="A27" s="0" t="s">
-        <x:v>185</x:v>
+    <x:row r="31" spans="1:166">
+      <x:c r="A31" s="0" t="s">
+        <x:v>189</x:v>
       </x:c>
     </x:row>
-    <x:row r="28" spans="1:165">
-      <x:c r="A28" s="0" t="s">
-        <x:v>181</x:v>
+    <x:row r="35" spans="1:166">
+      <x:c r="A35" s="0" t="s">
+        <x:v>190</x:v>
       </x:c>
     </x:row>
-    <x:row r="29" spans="1:165">
-      <x:c r="A29" s="0" t="s">
-        <x:v>186</x:v>
+    <x:row r="37" spans="1:166">
+      <x:c r="A37" s="0" t="s">
+        <x:v>191</x:v>
       </x:c>
     </x:row>
-    <x:row r="30" spans="1:165">
-      <x:c r="A30" s="0" t="s">
-        <x:v>187</x:v>
+    <x:row r="38" spans="1:166">
+      <x:c r="A38" s="0" t="s">
+        <x:v>182</x:v>
       </x:c>
     </x:row>
-    <x:row r="31" spans="1:165">
-      <x:c r="A31" s="0" t="s">
-        <x:v>188</x:v>
+    <x:row r="39" spans="1:166">
+      <x:c r="A39" s="0" t="s">
+        <x:v>192</x:v>
       </x:c>
     </x:row>
-    <x:row r="35" spans="1:165">
-      <x:c r="A35" s="0" t="s">
-        <x:v>189</x:v>
+    <x:row r="40" spans="1:166">
+      <x:c r="A40" s="0" t="s">
+        <x:v>193</x:v>
       </x:c>
     </x:row>
-    <x:row r="37" spans="1:165">
-      <x:c r="A37" s="0" t="s">
-        <x:v>190</x:v>
+    <x:row r="41" spans="1:166">
+      <x:c r="A41" s="0" t="s">
+        <x:v>182</x:v>
       </x:c>
     </x:row>
-    <x:row r="38" spans="1:165">
-      <x:c r="A38" s="0" t="s">
-        <x:v>181</x:v>
+    <x:row r="42" spans="1:166">
+      <x:c r="A42" s="0" t="s">
+        <x:v>194</x:v>
       </x:c>
     </x:row>
-    <x:row r="39" spans="1:165">
-      <x:c r="A39" s="0" t="s">
-        <x:v>191</x:v>
+    <x:row r="44" spans="1:166">
+      <x:c r="A44" s="0" t="s">
+        <x:v>195</x:v>
       </x:c>
     </x:row>
-    <x:row r="40" spans="1:165">
-      <x:c r="A40" s="0" t="s">
-        <x:v>192</x:v>
+    <x:row r="45" spans="1:166">
+      <x:c r="A45" s="0" t="s">
+        <x:v>165</x:v>
       </x:c>
     </x:row>
-    <x:row r="41" spans="1:165">
-      <x:c r="A41" s="0" t="s">
-        <x:v>181</x:v>
+    <x:row r="46" spans="1:166">
+      <x:c r="A46" s="0" t="s">
+        <x:v>196</x:v>
       </x:c>
     </x:row>
-    <x:row r="42" spans="1:165">
-      <x:c r="A42" s="0" t="s">
-        <x:v>193</x:v>
+    <x:row r="49" spans="1:166">
+      <x:c r="A49" s="0" t="s">
+        <x:v>182</x:v>
       </x:c>
     </x:row>
-    <x:row r="44" spans="1:165">
-      <x:c r="A44" s="0" t="s">
-        <x:v>194</x:v>
+    <x:row r="50" spans="1:166">
+      <x:c r="A50" s="0" t="s">
+        <x:v>197</x:v>
       </x:c>
     </x:row>
-    <x:row r="45" spans="1:165">
-      <x:c r="A45" s="0" t="s">
-        <x:v>164</x:v>
+    <x:row r="55" spans="1:166">
+      <x:c r="A55" s="0" t="s">
+        <x:v>198</x:v>
       </x:c>
     </x:row>
-    <x:row r="46" spans="1:165">
-      <x:c r="A46" s="0" t="s">
-        <x:v>195</x:v>
+    <x:row r="56" spans="1:166">
+      <x:c r="A56" s="0" t="s">
+        <x:v>199</x:v>
       </x:c>
     </x:row>
-    <x:row r="49" spans="1:165">
-      <x:c r="A49" s="0" t="s">
-        <x:v>181</x:v>
+    <x:row r="58" spans="1:166">
+      <x:c r="A58" s="0" t="s">
+        <x:v>200</x:v>
       </x:c>
     </x:row>
-    <x:row r="50" spans="1:165">
-      <x:c r="A50" s="0" t="s">
-        <x:v>196</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="55" spans="1:165">
-      <x:c r="A55" s="0" t="s">
-        <x:v>197</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="56" spans="1:165">
-      <x:c r="A56" s="0" t="s">
-        <x:v>198</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="58" spans="1:165">
-      <x:c r="A58" s="0" t="s">
-        <x:v>199</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="59" spans="1:165">
+    <x:row r="59" spans="1:166">
       <x:c r="A59" s="0" t="s">
-        <x:v>200</x:v>
+        <x:v>201</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
+  <x:mergeCells count="1">
+    <x:mergeCell ref="A18:FJ18"/>
+  </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
